--- a/doc/12_外部設計/02_DB定義書_ニューヨーカーズ 1.0.xlsx
+++ b/doc/12_外部設計/02_DB定義書_ニューヨーカーズ 1.0.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\研修\6月\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E1\doc\12_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EDDC67-7A86-48E2-83E4-37B999942525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187D22D5-D0F8-4BD4-8DD4-A26FDB067109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="Users" sheetId="2" r:id="rId2"/>
-    <sheet name="Profile" sheetId="4" r:id="rId3"/>
-    <sheet name="Hot Spring" sheetId="6" r:id="rId4"/>
-    <sheet name="Review" sheetId="5" r:id="rId5"/>
-    <sheet name="Checklist" sheetId="7" r:id="rId6"/>
+    <sheet name="Checklist" sheetId="7" r:id="rId3"/>
+    <sheet name="Review" sheetId="5" r:id="rId4"/>
+    <sheet name="タイムライン" sheetId="8" r:id="rId5"/>
+    <sheet name="Hot Spring" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="97">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -188,13 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザープロフィール詳細</t>
-    <rPh sb="10" eb="12">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>温泉データ</t>
     <rPh sb="0" eb="2">
       <t>オンセン</t>
@@ -229,10 +222,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Profile</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Hot Spring</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -249,10 +238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[User_ID」「Nickname」「p_img」「p_age」「p_gender」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「hs_name」「hs_address」「hs_phone」「hs_effect」「hs_hotel」「hs_value」「hs_url」</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -262,10 +247,6 @@
   </si>
   <si>
     <t>「User_ID」「cl_name」「cl_element」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「User_ID」「User_Name」「User_pw」</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -284,14 +265,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログインID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>User_Login_Id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -317,17 +290,6 @@
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロフィール情報</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hs_data</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -540,6 +502,57 @@
     <rPh sb="0" eb="2">
       <t>コウモク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックリストID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cl_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rv_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムラインID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tl_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>「User_ID」「User_Name」「User_pw」「Nickname」「p_img」「p_age」「p_gender」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timeline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「tl_id」「rv_id」「comment」</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -573,7 +586,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,8 +599,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -623,13 +654,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -651,12 +695,38 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9966"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -961,7 +1031,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -983,13 +1053,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -997,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1043,13 +1113,13 @@
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1057,13 +1127,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>35</v>
@@ -1074,33 +1144,33 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>37</v>
+      <c r="F11" s="13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1108,16 +1178,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1349,10 +1419,6 @@
       <c r="B38" s="3">
         <v>31</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1365,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1390,13 +1456,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1404,7 +1470,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1430,7 +1496,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1474,31 +1540,31 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>User_Id int ,</v>
+      <c r="B10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1506,27 +1572,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3">
-        <v>100</v>
+      <c r="E11" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>User_Login_Id varchar (100),</v>
+      <c r="L11" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1534,26 +1600,26 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>User_Pw varchar (8~12),</v>
       </c>
     </row>
@@ -1561,36 +1627,38 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3">
-        <v>100</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="D13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="12">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>Mailaddress varchar (100)</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>Mailaddress varchar (100),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1600,17 +1668,25 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>p_Img  ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3">
+        <v>200</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1618,17 +1694,25 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>p_Age varchar (200),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="3">
+        <v>12</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1636,7 +1720,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>p_gender varchar (12)</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1885,11 +1969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDA60FC-727B-49DC-8AAC-F182183CE7E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C3C304-02B0-4D0A-B0F7-98A4C3BF59C5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1913,13 +1997,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1927,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1941,7 +2025,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1953,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1993,34 +2077,34 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Profile (</v>
+        <v>create table Checklist (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="3"/>
+      <c r="B10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>User_Id int ,</v>
       </c>
     </row>
@@ -2028,115 +2112,109 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>p_Nickname varchar (12),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>cl_name varchar (100),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>p_Img  ,</v>
+      <c r="B12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="12">
+        <v>100</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="L12" t="e">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3">
-        <v>200</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>p_Age varchar (200),</v>
+      <c r="B13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="12">
+        <v>100</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="3">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>p_gender varchar (12)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
@@ -2146,15 +2224,15 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -2164,15 +2242,15 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -2182,15 +2260,15 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -2200,15 +2278,15 @@
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -2218,15 +2296,15 @@
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -2236,15 +2314,15 @@
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -2254,15 +2332,15 @@
       <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -2406,11 +2484,546 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A1356D-C4BD-4AA3-B4C4-AB4056F2B648}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845EA5CD-6D2B-4548-BEC9-0D186152AC3B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table Review (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="L10" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>User_Id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="L11" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>rv_hsname varchar (200),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="12">
+        <v>200</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="L12" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>rv_remark varchar (500),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="12">
+        <v>500</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="L13" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>rv_day varchar (50),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="12">
+        <v>50</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="L14" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>rv_point int (5),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="12">
+        <v>5</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="L15" t="e">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="L16" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="L17" t="str">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="L18" t="str">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="L19" t="str">
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="L20" t="str">
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="L21" t="str">
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="L22" t="str">
+        <f t="shared" ref="L22:L29" si="0">C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5EF2D8-60D0-40E9-B812-E16867932DF8}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2434,13 +3047,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2448,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2462,7 +3075,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2474,7 +3087,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2514,164 +3127,138 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table hs_data (</v>
+        <v>create table Review (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="e">
-        <f>C11&amp;" "&amp;#REF!&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="B10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="L10" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>rv_id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="11">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3">
-        <v>100</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="B11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
       <c r="L11" t="str">
-        <f>C12&amp;" "&amp;D10&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>hs_address int (100),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>comment varchar (300)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="B12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="12">
+        <v>300</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
       <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>hs_phone varchar (100),</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3">
-        <v>100</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
       <c r="L13" t="str">
-        <f>C14&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>hs_effect varchar (100),</v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
       <c r="L14" t="str">
-        <f>C15&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>hs_value varchar (100),</v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
       <c r="L15" t="e">
-        <f>C16&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -2679,25 +3266,17 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3">
-        <v>100</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
       <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -2705,17 +3284,17 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2723,17 +3302,17 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2741,17 +3320,17 @@
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2759,17 +3338,17 @@
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2777,17 +3356,17 @@
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2795,17 +3374,17 @@
       <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L22:L29" si="0">C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2813,15 +3392,15 @@
       <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -2831,15 +3410,15 @@
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -2946,12 +3525,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845EA5CD-6D2B-4548-BEC9-0D186152AC3B}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A1356D-C4BD-4AA3-B4C4-AB4056F2B648}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2975,13 +3554,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2989,7 +3568,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3003,7 +3582,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3015,7 +3594,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3055,35 +3634,35 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Review (</v>
+        <v>create table Hot Spring (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>User_Id int ,</v>
+      <c r="B10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="L10" t="e">
+        <f>C11&amp;" "&amp;#REF!&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3091,43 +3670,51 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>rv_hsname  ,</v>
+        <f>C12&amp;" "&amp;D10&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>hs_address int (100),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>86</v>
+      <c r="B12" t="s">
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>rv_remark  ,</v>
+        <f>C13&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>hs_phone varchar (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3135,21 +3722,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>rv_day  ,</v>
+        <f>C14&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>hs_effect varchar (100),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3157,21 +3748,25 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>rv_point  ,</v>
+        <f>C15&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>hs_value varchar (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3179,39 +3774,51 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">rv_img  </v>
+      <c r="L15" t="e">
+        <f>C16&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+      <c r="L16" t="e">
+        <f>#REF!&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3228,7 +3835,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3457,513 +4064,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C3C304-02B0-4D0A-B0F7-98A4C3BF59C5}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Checklist (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>User_Id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3">
-        <v>100</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>cl_name varchar (100),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>cl_element varchar (100)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/12_外部設計/02_DB定義書_ニューヨーカーズ 1.0.xlsx
+++ b/doc/12_外部設計/02_DB定義書_ニューヨーカーズ 1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E1\doc\12_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187D22D5-D0F8-4BD4-8DD4-A26FDB067109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A78543-3BA8-45CA-AF64-E42D1C196345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="97">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -673,7 +673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,9 +711,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,8 +1027,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1160,16 +1157,16 @@
       <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1431,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1972,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C3C304-02B0-4D0A-B0F7-98A4C3BF59C5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2488,7 +2485,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2642,9 +2639,9 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="L11" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>rv_hsname varchar (200),</v>
+      <c r="L11" t="e">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2665,12 +2662,14 @@
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
-      <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>rv_remark varchar (500),</v>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2678,24 +2677,26 @@
         <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="E13" s="12">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="L13" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>rv_day varchar (50),</v>
       </c>
     </row>
@@ -2721,7 +2722,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="L14" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>rv_point int (5),</v>
       </c>
     </row>
@@ -2730,24 +2731,20 @@
         <v>6</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="12">
-        <v>5</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="L15" t="e">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -2756,20 +2753,24 @@
         <v>7</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="12">
+        <v>500</v>
+      </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -2787,8 +2788,8 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="L17" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>rv_remark varchar (500)</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2805,7 +2806,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="L18" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2823,7 +2824,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="L19" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2841,7 +2842,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="L20" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2859,7 +2860,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="L21" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2877,7 +2878,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="L22" t="str">
-        <f t="shared" ref="L22:L29" si="0">C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L22:L29" si="0">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2903,15 +2904,15 @@
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -2993,15 +2994,6 @@
       <c r="A29" s="3">
         <v>20</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -3022,7 +3014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5EF2D8-60D0-40E9-B812-E16867932DF8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -3530,7 +3522,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3683,7 +3675,9 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">

--- a/doc/12_外部設計/02_DB定義書_ニューヨーカーズ 1.0.xlsx
+++ b/doc/12_外部設計/02_DB定義書_ニューヨーカーズ 1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E1\doc\12_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A78543-3BA8-45CA-AF64-E42D1C196345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633483BE-E4B8-42B3-AA58-C5D95E52A90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="98">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -553,6 +553,10 @@
   </si>
   <si>
     <t>「tl_id」「rv_id」「comment」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mediumblob</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1027,8 +1031,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1428,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1656,7 +1660,9 @@
       <c r="C14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1665,7 +1671,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>p_Img  ,</v>
+        <v>p_Img mediumblob ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1969,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C3C304-02B0-4D0A-B0F7-98A4C3BF59C5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2485,7 +2491,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2736,7 +2742,9 @@
       <c r="C15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3522,7 +3530,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/doc/12_外部設計/02_DB定義書_ニューヨーカーズ 1.0.xlsx
+++ b/doc/12_外部設計/02_DB定義書_ニューヨーカーズ 1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E1\doc\12_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633483BE-E4B8-42B3-AA58-C5D95E52A90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A802BA-B6E8-4687-8E92-A66E79C32257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Checklist" sheetId="7" r:id="rId3"/>
     <sheet name="Review" sheetId="5" r:id="rId4"/>
     <sheet name="タイムライン" sheetId="8" r:id="rId5"/>
-    <sheet name="Hot Spring" sheetId="6" r:id="rId6"/>
+    <sheet name="Onsen" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="103">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Hot Spring</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Review</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -408,13 +404,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ番号</t>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>hs_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -557,6 +546,42 @@
   </si>
   <si>
     <t>mediumblob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Onsen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松川太陽</t>
+    <rPh sb="0" eb="4">
+      <t>マツカワタイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>Hiduke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温泉ID</t>
+    <rPh sb="0" eb="2">
+      <t>オンセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部キー</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -590,7 +615,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,6 +643,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,6 +746,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,7 +1075,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1081,13 +1124,17 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45453</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -1117,10 +1164,10 @@
         <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1131,13 +1178,13 @@
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1148,13 +1195,13 @@
         <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1162,16 +1209,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
         <v>94</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1182,13 +1229,13 @@
         <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1204,7 +1251,6 @@
       <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1433,7 +1479,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1463,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1490,7 +1536,12 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -1502,7 +1553,10 @@
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45453</v>
+      </c>
+      <c r="G5" s="16"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1545,22 +1599,24 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="L10" t="e">
@@ -1573,21 +1629,21 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1601,13 +1657,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -1615,7 +1671,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1629,20 +1685,22 @@
         <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="D13" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="12">
         <v>12</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
@@ -1655,13 +1713,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1679,16 +1737,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1697,7 +1755,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>p_Age varchar (200),</v>
+        <v>p_Age varchar (3),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1705,13 +1763,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3">
         <v>12</v>
@@ -1723,25 +1781,33 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>p_gender varchar (12)</v>
+        <v>p_gender varchar (12),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="B17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">Hiduke deta </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1975,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C3C304-02B0-4D0A-B0F7-98A4C3BF59C5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2006,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2022,6 +2088,9 @@
       <c r="E3" s="5">
         <v>45449</v>
       </c>
+      <c r="G3" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -2033,19 +2102,26 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45453</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2088,22 +2164,24 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="L10" t="str">
@@ -2116,18 +2194,20 @@
         <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="L11" t="str">
@@ -2140,20 +2220,22 @@
         <v>3</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="12">
         <v>100</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="L12" t="e">
@@ -2166,13 +2248,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="12">
         <v>100</v>
@@ -2191,18 +2273,26 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">Hiduke deta </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2490,8 +2580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845EA5CD-6D2B-4548-BEC9-0D186152AC3B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2521,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2537,30 +2627,40 @@
       <c r="E3" s="5">
         <v>45449</v>
       </c>
+      <c r="G3" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45453</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2603,22 +2703,24 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="L10" t="str">
@@ -2631,18 +2733,20 @@
         <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="L11" t="e">
@@ -2655,13 +2759,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="12">
         <v>200</v>
@@ -2669,7 +2773,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
@@ -2683,13 +2787,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="12">
         <v>5</v>
@@ -2697,7 +2801,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
@@ -2711,13 +2815,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" s="12">
         <v>50</v>
@@ -2737,13 +2841,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -2761,13 +2865,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E16" s="12">
         <v>500</v>
@@ -2786,18 +2890,26 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="L17" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>rv_remark varchar (500)</v>
+        <v>rv_remark varchar (500),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2815,7 +2927,7 @@
       <c r="J18" s="12"/>
       <c r="L18" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">Hiduke deta </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -3023,7 +3135,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3053,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3069,30 +3181,40 @@
       <c r="E3" s="5">
         <v>45449</v>
       </c>
+      <c r="G3" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45453</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3135,26 +3257,28 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="L10" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>rv_id int ,</v>
       </c>
     </row>
@@ -3163,80 +3287,97 @@
         <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="L11" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>comment varchar (300)</v>
+      <c r="L11" t="e">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="12">
-        <v>300</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>98</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
-      <c r="L12" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="12">
+        <v>300</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="L13" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">Hiduke deta </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="L14" t="str">
@@ -3529,8 +3670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A1356D-C4BD-4AA3-B4C4-AB4056F2B648}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3560,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3576,6 +3717,9 @@
       <c r="E3" s="5">
         <v>45449</v>
       </c>
+      <c r="G3" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -3587,19 +3731,23 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45453</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3634,7 +3782,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Hot Spring (</v>
+        <v>create table Onsen (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3642,22 +3790,24 @@
         <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="L10" t="e">
@@ -3670,13 +3820,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -3684,7 +3834,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3698,13 +3848,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -3724,13 +3874,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -3750,13 +3900,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -3776,13 +3926,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -3802,13 +3952,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3">
         <v>100</v>

--- a/doc/12_外部設計/02_DB定義書_ニューヨーカーズ 1.0.xlsx
+++ b/doc/12_外部設計/02_DB定義書_ニューヨーカーズ 1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E1\doc\12_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A802BA-B6E8-4687-8E92-A66E79C32257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FFCEFF-5921-435E-8F64-52DF4D4E8918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="20736" windowHeight="10656" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="105">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -582,6 +582,20 @@
     <rPh sb="0" eb="2">
       <t>ガイブ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>温泉画像</t>
+    <rPh sb="0" eb="2">
+      <t>オンセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hs_img</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -653,7 +667,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -702,13 +716,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +783,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2580,7 +2608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845EA5CD-6D2B-4548-BEC9-0D186152AC3B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
@@ -3671,7 +3699,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3917,7 +3945,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C15&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C15&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>hs_value varchar (100),</v>
       </c>
     </row>
@@ -3943,7 +3971,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="e">
-        <f>C16&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <f>C17&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -3951,17 +3979,11 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3">
-        <v>100</v>
+      <c r="B16" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3969,7 +3991,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f>#REF!&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -3977,18 +3999,26 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+      <c r="L17" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -4005,7 +4035,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L17:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/doc/12_外部設計/02_DB定義書_ニューヨーカーズ 1.0.xlsx
+++ b/doc/12_外部設計/02_DB定義書_ニューヨーカーズ 1.0.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E1\doc\12_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FFCEFF-5921-435E-8F64-52DF4D4E8918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789B7336-CA02-4168-BA9E-76D98B0CAFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="20736" windowHeight="10656" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="Users" sheetId="2" r:id="rId2"/>
+    <sheet name="Users" sheetId="2" r:id="rId1"/>
+    <sheet name="テーブル一覧" sheetId="1" r:id="rId2"/>
     <sheet name="Checklist" sheetId="7" r:id="rId3"/>
     <sheet name="Review" sheetId="5" r:id="rId4"/>
     <sheet name="タイムライン" sheetId="8" r:id="rId5"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="111">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -596,6 +596,33 @@
   </si>
   <si>
     <t>hs_img</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねの数</t>
+    <rPh sb="4" eb="5">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rv_iine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rv_Hiduke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブックマーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rv_book</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -733,7 +760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -783,6 +810,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -1096,418 +1126,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F38"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="3">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="3">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="3">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
-        <v>13</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="3">
-        <v>14</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="3">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="3">
-        <v>16</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="3">
-        <v>17</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="3">
-        <v>18</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="3">
-        <v>19</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="3">
-        <v>20</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="3">
-        <v>21</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="3">
-        <v>22</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="3">
-        <v>23</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="3">
-        <v>24</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="3">
-        <v>25</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="3">
-        <v>26</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="3">
-        <v>27</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="3">
-        <v>28</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="3">
-        <v>29</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="3">
-        <v>30</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="3">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2062,6 +1685,413 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="3">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>18</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="3">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="3">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="3">
+        <v>21</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="3">
+        <v>22</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="3">
+        <v>23</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="3">
+        <v>24</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="3">
+        <v>25</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="3">
+        <v>26</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="3">
+        <v>27</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="3">
+        <v>28</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="3">
+        <v>29</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="3">
+        <v>30</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="3">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2608,8 +2638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845EA5CD-6D2B-4548-BEC9-0D186152AC3B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2874,10 +2904,12 @@
       <c r="C15" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="12"/>
+      <c r="D15" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="18">
+        <v>255</v>
+      </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -2902,7 +2934,7 @@
         <v>90</v>
       </c>
       <c r="E16" s="12">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -2922,7 +2954,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>100</v>
@@ -2937,16 +2969,22 @@
       <c r="J17" s="12"/>
       <c r="L17" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>rv_remark varchar (500),</v>
+        <v>rv_remark varchar (255),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -2955,16 +2993,22 @@
       <c r="J18" s="12"/>
       <c r="L18" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">Hiduke deta </v>
+        <v>rv_Hiduke deta ,</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -2973,7 +3017,7 @@
       <c r="J19" s="12"/>
       <c r="L19" t="str">
         <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>rv_iine int ,</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2991,7 +3035,7 @@
       <c r="J20" s="12"/>
       <c r="L20" t="str">
         <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">rv_book int  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -3162,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5EF2D8-60D0-40E9-B812-E16867932DF8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3235,7 +3279,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3277,7 +3321,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Review (</v>
+        <v>create table Timeline (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3373,7 +3417,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="12">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -3698,8 +3742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A1356D-C4BD-4AA3-B4C4-AB4056F2B648}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3985,6 +4029,12 @@
       <c r="C16" s="17" t="s">
         <v>104</v>
       </c>
+      <c r="D16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="18">
+        <v>255</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -4035,7 +4085,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" ref="L17:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>

--- a/doc/12_外部設計/02_DB定義書_ニューヨーカーズ 1.0.xlsx
+++ b/doc/12_外部設計/02_DB定義書_ニューヨーカーズ 1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E1\doc\12_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789B7336-CA02-4168-BA9E-76D98B0CAFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B24069-8449-47E3-A6C9-005FA6448EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="112">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -606,10 +606,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>rv_iine</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>rv_Hiduke</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -623,6 +619,14 @@
   </si>
   <si>
     <t xml:space="preserve">int </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rv_iinecheck</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -760,7 +764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,9 +817,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1446,9 +1447,11 @@
         <v>99</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="E17" s="12">
+        <v>20</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12" t="s">
@@ -1458,7 +1461,7 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Hiduke deta </v>
+        <v>Hiduke varchar (20)</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2099,1114 +2102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C3C304-02B0-4D0A-B0F7-98A4C3BF59C5}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45449</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Checklist (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="L10" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>User_Id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="L11" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>cl_name varchar (100),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="12">
-        <v>100</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="L12" t="e">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="12">
-        <v>100</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">Hiduke deta </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845EA5CD-6D2B-4548-BEC9-0D186152AC3B}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45449</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Review (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="L10" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>User_Id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="L11" t="e">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="12">
-        <v>200</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="12">
-        <v>5</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="L13" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>rv_day varchar (50),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="12">
-        <v>50</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="L14" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>rv_point int (5),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="18">
-        <v>255</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="L15" t="e">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="12">
-        <v>255</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="L17" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>rv_remark varchar (255),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="L18" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>rv_Hiduke deta ,</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="L19" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>rv_iine int ,</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="L20" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">rv_book int  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="L21" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="L22" t="str">
-        <f t="shared" ref="L22:L29" si="0">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5EF2D8-60D0-40E9-B812-E16867932DF8}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -3262,7 +2158,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3279,7 +2175,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3321,18 +2217,18 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table Timeline (</v>
+        <v>create table Checklist (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>37</v>
@@ -3344,25 +2240,25 @@
       <c r="G10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="L10" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>rv_id int ,</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>User_Id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>37</v>
@@ -3371,35 +2267,40 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
-      <c r="L11" t="e">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>cl_name varchar (100),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>98</v>
+      <c r="B12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="12">
+        <v>100</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -3408,27 +2309,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="12">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="L13" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">Hiduke deta </v>
+      <c r="L13" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3442,9 +2341,11 @@
         <v>99</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="E14" s="12">
+        <v>20</v>
+      </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12" t="s">
@@ -3453,8 +2354,8 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="L14" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>Hiduke varchar (20)</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3470,9 +2371,9 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="L15" t="e">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3488,9 +2389,9 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3507,7 +2408,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="L17" t="str">
-        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3525,7 +2426,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="L18" t="str">
-        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3543,7 +2444,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="L19" t="str">
-        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3561,7 +2462,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="L20" t="str">
-        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3579,7 +2480,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="L21" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3597,7 +2498,584 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="L22" t="str">
-        <f t="shared" ref="L22:L29" si="0">C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845EA5CD-6D2B-4548-BEC9-0D186152AC3B}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45449</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table Review (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="L11" t="e">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="12">
+        <v>200</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="12">
+        <v>5</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="L13" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>rv_day varchar (50),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="12">
+        <v>50</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="L14" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>rv_point int (5),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="17">
+        <v>255</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="L15" t="e">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="12">
+        <v>255</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="L16" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="L17" t="str">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>rv_remark varchar (255),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="L18" t="str">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>rv_Hiduke deta ,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="L19" t="str">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>rv_iinecheck int ,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="L20" t="str">
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">rv_book int  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="L21" t="str">
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="L22" t="str">
+        <f t="shared" ref="L22:L29" si="0">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3623,15 +3101,15 @@
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -3713,15 +3191,6 @@
       <c r="A29" s="3">
         <v>20</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -3735,15 +3204,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A1356D-C4BD-4AA3-B4C4-AB4056F2B648}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5EF2D8-60D0-40E9-B812-E16867932DF8}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3798,6 +3268,545 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table Timeline (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="L10" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>rv_id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="L11" t="e">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="L12" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="12">
+        <v>255</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="L13" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>Hiduke varchar (20)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="12">
+        <v>20</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="L14" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="L15" t="e">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="L16" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="L17" t="str">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="L18" t="str">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="L19" t="str">
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="L20" t="str">
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="L21" t="str">
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="L22" t="str">
+        <f t="shared" ref="L22:L29" si="0">C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A1356D-C4BD-4AA3-B4C4-AB4056F2B648}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45449</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -4029,10 +4038,10 @@
       <c r="C16" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>255</v>
       </c>
       <c r="F16" s="3"/>
@@ -4295,5 +4304,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>